--- a/biology/Botanique/Metteniusaceae/Metteniusaceae.xlsx
+++ b/biology/Botanique/Metteniusaceae/Metteniusaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Metteniusaceae (Metténiusacées) est une petite famille de plantes dicotylédones. Selon le Angiosperm Phylogeny Website [18 février 2008] elle comprend 7 espèces du genre Metteniusa.
-Elle comprend 14 (GBIF       (04 mars 2022)[1]) à 24 (Tropicos                                           (04 mars 2022)[2]) genres, dont plusieurs appartenaient autrefois à la famille des Icacinaceae.
+Elle comprend 14 (GBIF       (04 mars 2022)) à 24 (Tropicos                                           (04 mars 2022)) genres, dont plusieurs appartenaient autrefois à la famille des Icacinaceae.
 Ce sont des arbres à feuilles persistantes des régions tropicales d'Amérique centrale et du nord-ouest de l'Amérique du Sud. 
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Metteniusa, nommé en hommage au botaniste allemand Georg Heinrich Mettenius (1823–1866), professeur de botanique à Fribourg et Leipzig. Spécialiste en ptéridologie il étudia aussi les algues marines dans l'archipel d'Heligoland, au nord-ouest de l'Allemagne.
 </t>
@@ -544,14 +558,16 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille n'existe que dans peu de classifications:
-La classification phylogénétique APG (1998)[3] la place parmi les familles de position incertaine.
-La classification phylogénétique APG II (2003)[4] place le genre Metteniusa comme étant de position incertaine et n'a pas recours à une famille des Metteniusaceae.
+La classification phylogénétique APG (1998) la place parmi les familles de position incertaine.
+La classification phylogénétique APG II (2003) place le genre Metteniusa comme étant de position incertaine et n'a pas recours à une famille des Metteniusaceae.
 Le Angiosperm Phylogeny Website accepte cette famille, en position incertaine.
-La classification phylogénétique APG III (2009)[5] accepte cette famille sous Lamiidées.
-La classification phylogénétique APG IV (2016)[6] accepte cette famille, y incluant plusieurs genres d'Icacinaceae.
+La classification phylogénétique APG III (2009) accepte cette famille sous Lamiidées.
+La classification phylogénétique APG IV (2016) accepte cette famille, y incluant plusieurs genres d'Icacinaceae.
 </t>
         </is>
       </c>
@@ -580,11 +596,13 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (2 Jul 2010)[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (2 Jul 2010) :
 Metteniusa (en)
-Selon GBIF       (04 mars 2022)[1] :
+Selon GBIF       (04 mars 2022) :
 Apodytes E.Mey. ex Arn. (1 espèce)
 Apodytes E.Mey. ex Bernh. (8 espèces)
 Calatola Standl. (5 espèces)
@@ -599,7 +617,7 @@
 Platea Blume (14 espèces)
 Poraqueiba Aubl. (3 espèces)
 Rhaphiostylis Planch. ex Benth. (16 espèces)
-Selon Tropicos                                           (04 mars 2022)[2] :
+Selon Tropicos                                           (04 mars 2022) :
 Anisomallon Baill., 1874
 Apodytes E. Mey. ex Arn., 1840
 Asterolepidion Ducke, 1922
@@ -615,10 +633,10 @@
 Meisteria Scop. ex J.F. Gmel., 1791
 Metteniusa H. Karst., 1860
 Metteniusia Post &amp; Kuntze, 1903
-Oecopetalum Greenm. &amp; C.H. Thomps., 1914 [1915]
+Oecopetalum Greenm. &amp; C.H. Thomps., 1914 
 Ottoschulzia Urb., 1912
 Pittosporopsis Craib, 1911
-Platea Blume, 1825 [1826]
+Platea Blume, 1825 
 Platystigma R. Br. ex Hook. f., 1887
 Pogopetalum Benth., 1841
 Poraqueiba Aubl., 1775
@@ -652,9 +670,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (2 Jul 2010)[7] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (2 Jul 2010) :
 genre Metteniusa
 Metteniusa tessmanniana</t>
         </is>
